--- a/input/images/tables/provenance-elements.xlsx
+++ b/input/images/tables/provenance-elements.xlsx
@@ -423,7 +423,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Row</t>
+          <t>﻿Row</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>not mapped to 5Ws. make tracker ?</t>
+          <t>not mapped to 5Ws. make tracker √</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -3148,7 +3148,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -3258,7 +3258,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -3465,7 +3465,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -7717,7 +7717,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -8301,7 +8301,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -9187,7 +9187,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -11276,7 +11276,7 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">

--- a/input/images/tables/provenance-elements.xlsx
+++ b/input/images/tables/provenance-elements.xlsx
@@ -606,11 +606,7 @@
       <c r="A2" t="n">
         <v>5</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -754,11 +750,7 @@
       <c r="A3" t="n">
         <v>4</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -886,11 +878,7 @@
       <c r="A4" t="n">
         <v>14</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -1310,11 +1298,7 @@
       <c r="A7" t="n">
         <v>17</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -1462,11 +1446,7 @@
       <c r="A8" t="n">
         <v>16</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -1594,11 +1574,7 @@
       <c r="A9" t="n">
         <v>19</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -1746,11 +1722,7 @@
       <c r="A10" t="n">
         <v>18</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -2836,11 +2808,7 @@
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -2998,11 +2966,7 @@
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -3886,11 +3850,7 @@
       <c r="A25" t="n">
         <v>34</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -4042,11 +4002,7 @@
       <c r="A26" t="n">
         <v>34</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -4198,11 +4154,7 @@
       <c r="A27" t="n">
         <v>34</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -4354,11 +4306,7 @@
       <c r="A28" t="n">
         <v>35</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -6286,11 +6234,7 @@
       <c r="A41" t="n">
         <v>12</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -6446,11 +6390,7 @@
       <c r="A42" t="n">
         <v>75</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -7486,11 +7426,7 @@
       <c r="A49" t="n">
         <v>36</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -7646,11 +7582,7 @@
       <c r="A50" t="n">
         <v>79</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -8086,11 +8018,7 @@
       <c r="A53" t="n">
         <v>38</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -8242,11 +8170,7 @@
       <c r="A54" t="n">
         <v>81</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -8986,11 +8910,7 @@
       <c r="A59" t="n">
         <v>41</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -9146,11 +9066,7 @@
       <c r="A60" t="n">
         <v>84</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -11082,11 +10998,7 @@
       <c r="A73" t="n">
         <v>58</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -11242,11 +11154,7 @@
       <c r="A74" t="n">
         <v>91</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -11678,11 +11586,7 @@
       <c r="A77" t="n">
         <v>61</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -11838,11 +11742,7 @@
       <c r="A78" t="n">
         <v>93</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -12286,11 +12186,7 @@
       <c r="A81" t="n">
         <v>43</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -12418,11 +12314,7 @@
       <c r="A82" t="n">
         <v>44</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -12570,11 +12462,7 @@
       <c r="A83" t="n">
         <v>45</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -13114,11 +13002,7 @@
       <c r="A87" t="n">
         <v>50</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -13274,11 +13158,7 @@
       <c r="A88" t="n">
         <v>51</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -13422,11 +13302,7 @@
       <c r="A89" t="n">
         <v>54</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -13554,11 +13430,7 @@
       <c r="A90" t="n">
         <v>55</v>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -13686,11 +13558,7 @@
       <c r="A91" t="n">
         <v>56</v>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -13818,11 +13686,7 @@
       <c r="A92" t="n">
         <v>57</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -13950,11 +13814,7 @@
       <c r="A93" t="n">
         <v>53</v>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
           <t>FALSE</t>

--- a/input/images/tables/provenance-elements.xlsx
+++ b/input/images/tables/provenance-elements.xlsx
@@ -423,12 +423,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>﻿Row</t>
+          <t>﻿Is_New</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Is_New</t>
+          <t>Row</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -643,10 +643,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="n">
         <v>5</v>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -827,10 +827,10 @@
       <c r="AR2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="n">
         <v>4</v>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -1011,10 +1011,10 @@
       <c r="AR3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="n">
         <v>14</v>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -1211,10 +1211,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="n">
         <v>13</v>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -1383,10 +1383,10 @@
       <c r="AR5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="n">
         <v>15</v>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -1551,10 +1551,10 @@
       <c r="AR6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="n">
         <v>17</v>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -1739,10 +1739,10 @@
       <c r="AR7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="n">
         <v>16</v>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -1923,10 +1923,10 @@
       <c r="AR8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="n">
         <v>19</v>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -2111,10 +2111,10 @@
       <c r="AR9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="n">
         <v>18</v>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -2295,10 +2295,10 @@
       <c r="AR10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="n">
         <v>20</v>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -2463,10 +2463,10 @@
       <c r="AR11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="n">
         <v>31</v>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -2631,10 +2631,10 @@
       <c r="AR12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="n">
         <v>32</v>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -2799,10 +2799,10 @@
       <c r="AR13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="n">
         <v>21</v>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -2983,10 +2983,10 @@
       <c r="AR14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="n">
         <v>22</v>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -3167,10 +3167,10 @@
       <c r="AR15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="n">
         <v>23</v>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -3351,10 +3351,10 @@
       <c r="AR16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="n">
         <v>24</v>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -3931,13 +3931,9 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="n">
         <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -4119,10 +4115,10 @@
       <c r="AR20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="n">
         <v>25</v>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -4303,10 +4299,10 @@
       <c r="AR21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="n">
         <v>29</v>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -4503,10 +4499,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="n">
         <v>30</v>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -4703,10 +4699,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="n">
         <v>28</v>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -4875,10 +4871,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="n">
         <v>33</v>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -5043,10 +5039,10 @@
       <c r="AR25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="n">
         <v>34</v>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -5235,10 +5231,10 @@
       <c r="AR26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="n">
         <v>34</v>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -5427,10 +5423,10 @@
       <c r="AR27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="n">
         <v>34</v>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -5619,10 +5615,10 @@
       <c r="AR28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="n">
         <v>35</v>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -5787,10 +5783,10 @@
       <c r="AR29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="n">
         <v>6</v>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -5983,10 +5979,10 @@
       <c r="AR30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="n">
         <v>69</v>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -6167,10 +6163,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="n">
         <v>7</v>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -6363,10 +6359,10 @@
       <c r="AR32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="n">
         <v>70</v>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -6547,10 +6543,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="n">
         <v>8</v>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -6743,10 +6739,10 @@
       <c r="AR34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="n">
         <v>71</v>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -6927,10 +6923,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="n">
         <v>9</v>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -7123,10 +7119,10 @@
       <c r="AR36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="n">
         <v>72</v>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -7307,10 +7303,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="n">
         <v>10</v>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -7503,10 +7499,10 @@
       <c r="AR38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="n">
         <v>73</v>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -7687,10 +7683,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="n">
         <v>11</v>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -7883,10 +7879,10 @@
       <c r="AR40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="n">
         <v>74</v>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -8067,10 +8063,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="n">
         <v>12</v>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -8263,10 +8259,10 @@
       <c r="AR42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="n">
         <v>75</v>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -8447,10 +8443,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="n">
         <v>26</v>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -8643,10 +8639,10 @@
       <c r="AR44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="n">
         <v>76</v>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -8827,10 +8823,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="n">
         <v>27</v>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -9023,10 +9019,10 @@
       <c r="AR46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="n">
         <v>77</v>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -9207,10 +9203,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="n">
         <v>37</v>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -9399,10 +9395,10 @@
       <c r="AR48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="n">
         <v>78</v>
       </c>
-      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -9579,10 +9575,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="n">
         <v>36</v>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -9775,10 +9771,10 @@
       <c r="AR50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="n">
         <v>79</v>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -9959,10 +9955,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="n">
         <v>36</v>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -10151,10 +10147,10 @@
       <c r="AR52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="n">
         <v>80</v>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -10331,10 +10327,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="n">
         <v>38</v>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -10523,10 +10519,10 @@
       <c r="AR54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="n">
         <v>81</v>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -10703,10 +10699,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="n">
         <v>39</v>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -10899,10 +10895,10 @@
       <c r="AR56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="n">
         <v>82</v>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -11083,10 +11079,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="n">
         <v>40</v>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -11279,10 +11275,10 @@
       <c r="AR58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="n">
         <v>83</v>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -11463,10 +11459,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="n">
         <v>41</v>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -11659,10 +11655,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="n">
         <v>84</v>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -11839,10 +11835,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="n">
         <v>42</v>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -12031,10 +12027,10 @@
       <c r="AR62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="n">
         <v>85</v>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -12211,10 +12207,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="n">
         <v>2</v>
       </c>
-      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -12407,10 +12403,10 @@
       <c r="AR64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="n">
         <v>86</v>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -12591,10 +12587,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="n">
         <v>1</v>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -12787,10 +12783,10 @@
       <c r="AR66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="n">
         <v>87</v>
       </c>
-      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -12971,10 +12967,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="n">
         <v>3</v>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -13167,10 +13163,10 @@
       <c r="AR68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="n">
         <v>88</v>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -13351,10 +13347,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="n">
         <v>49</v>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -13547,10 +13543,10 @@
       <c r="AR70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="n">
         <v>89</v>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -13731,10 +13727,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="n">
         <v>52</v>
       </c>
-      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -13927,10 +13923,10 @@
       <c r="AR72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="n">
         <v>90</v>
       </c>
-      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -14111,10 +14107,10 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="n">
         <v>58</v>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -14307,10 +14303,10 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="n">
         <v>91</v>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -14487,10 +14483,10 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="n">
         <v>59</v>
       </c>
-      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -14679,10 +14675,10 @@
       <c r="AR76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="n">
         <v>92</v>
       </c>
-      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -14859,10 +14855,10 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="n">
         <v>61</v>
       </c>
-      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -15055,10 +15051,10 @@
       <c r="AR78" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="n">
         <v>93</v>
       </c>
-      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -15239,10 +15235,10 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="n">
         <v>62</v>
       </c>
-      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -15435,10 +15431,10 @@
       <c r="AR80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="n">
         <v>94</v>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -15619,10 +15615,10 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="n">
         <v>43</v>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -15787,10 +15783,10 @@
       <c r="AR82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="n">
         <v>44</v>
       </c>
-      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -15975,10 +15971,10 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="n">
         <v>45</v>
       </c>
-      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -16167,10 +16163,10 @@
       <c r="AR84" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="n">
         <v>46</v>
       </c>
-      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -16335,10 +16331,10 @@
       <c r="AR85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="n">
         <v>47</v>
       </c>
-      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -16503,10 +16499,10 @@
       <c r="AR86" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" t="n">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="n">
         <v>48</v>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -16671,10 +16667,10 @@
       <c r="AR87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="n">
         <v>50</v>
       </c>
-      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -16863,10 +16859,10 @@
       <c r="AR88" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="n">
         <v>51</v>
       </c>
-      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -17047,10 +17043,10 @@
       <c r="AR89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="n">
         <v>54</v>
       </c>
-      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -17215,10 +17211,10 @@
       <c r="AR90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="n">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="n">
         <v>55</v>
       </c>
-      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -17383,10 +17379,10 @@
       <c r="AR91" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="n">
         <v>56</v>
       </c>
-      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -17551,10 +17547,10 @@
       <c r="AR92" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="n">
         <v>57</v>
       </c>
-      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -17719,10 +17715,10 @@
       <c r="AR93" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="n">
         <v>53</v>
       </c>
-      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -17911,13 +17907,9 @@
       <c r="AR94" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>54</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="n">
+        <v>60</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -17937,29 +17929,29 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>US Core PMO ServiceRequest Profile</t>
+          <t>US Core Specimen Profile</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-pmo-servicerequest</t>
+          <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-specimen</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>StructureDefinition-us-core-pmo-servicerequest.html</t>
+          <t>StructureDefinition-us-core-specimen.html</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>ServiceRequest</t>
+          <t>Specimen</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>ServiceRequest.performerType</t>
+          <t>Specimen.collection.collector</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -18081,886 +18073,6 @@
         </is>
       </c>
       <c r="AR95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>55</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>US Core PMO ServiceRequest Profile</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-pmo-servicerequest</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>StructureDefinition-us-core-pmo-servicerequest.html</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>ServiceRequest</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>ServiceRequest.performer</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="V96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="Z96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AA96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB96" t="inlineStr"/>
-      <c r="AC96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AD96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AF96" t="inlineStr"/>
-      <c r="AG96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AI96" t="inlineStr"/>
-      <c r="AJ96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AK96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AL96" t="inlineStr"/>
-      <c r="AM96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AN96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AO96" t="inlineStr"/>
-      <c r="AP96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AQ96" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AR96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>56</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>US Core PMO ServiceRequest Profile</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-pmo-servicerequest</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>StructureDefinition-us-core-pmo-servicerequest.html</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>ServiceRequest</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>ServiceRequest.locationCode</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="V97" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W97" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="Z97" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AA97" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB97" t="inlineStr"/>
-      <c r="AC97" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AD97" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE97" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AF97" t="inlineStr"/>
-      <c r="AG97" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH97" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AI97" t="inlineStr"/>
-      <c r="AJ97" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AK97" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AL97" t="inlineStr"/>
-      <c r="AM97" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AN97" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AO97" t="inlineStr"/>
-      <c r="AP97" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AQ97" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AR97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>57</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>US Core PMO ServiceRequest Profile</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-pmo-servicerequest</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>StructureDefinition-us-core-pmo-servicerequest.html</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>ServiceRequest</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>ServiceRequest.locationReference</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="V98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="Z98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AA98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB98" t="inlineStr"/>
-      <c r="AC98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AD98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AF98" t="inlineStr"/>
-      <c r="AG98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AI98" t="inlineStr"/>
-      <c r="AJ98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AK98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AL98" t="inlineStr"/>
-      <c r="AM98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AN98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AO98" t="inlineStr"/>
-      <c r="AP98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AQ98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AR98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>53</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>US Core PMO ServiceRequest Profile</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-pmo-servicerequest</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>StructureDefinition-us-core-pmo-servicerequest.html</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>ServiceRequest</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>ServiceRequest.requester</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
-      <c r="Q99" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>US Core Organization Profile</t>
-        </is>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="V99" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W99" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="X99" t="inlineStr">
-        <is>
-          <t>US Core PractitionerRole Profile</t>
-        </is>
-      </c>
-      <c r="Y99" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="Z99" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AA99" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB99" t="inlineStr">
-        <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
-      <c r="AC99" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AD99" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE99" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AF99" t="inlineStr">
-        <is>
-          <t>US Core RelatedPerson Profile</t>
-        </is>
-      </c>
-      <c r="AG99" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH99" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AI99" t="inlineStr"/>
-      <c r="AJ99" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AK99" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AL99" t="inlineStr">
-        <is>
-          <t>Device</t>
-        </is>
-      </c>
-      <c r="AM99" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AN99" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AO99" t="inlineStr"/>
-      <c r="AP99" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AQ99" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AR99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>60</v>
-      </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>US Core Specimen Profile</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-specimen</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>StructureDefinition-us-core-specimen.html</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Specimen</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>Specimen.collection.collector</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="V100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="Z100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AA100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AB100" t="inlineStr"/>
-      <c r="AC100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AD100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AE100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AF100" t="inlineStr"/>
-      <c r="AG100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AI100" t="inlineStr"/>
-      <c r="AJ100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AK100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AL100" t="inlineStr"/>
-      <c r="AM100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AN100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AO100" t="inlineStr"/>
-      <c r="AP100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AQ100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AR100" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
